--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\kretaretek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Májki\Desktop\Kréta python\kretaretek-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F5A834-C60B-4CE9-97E5-12E0646C6AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71AE58F-E7F6-4503-B4D7-E7CA03CB95BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Grades" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>2024.03.15</t>
+  </si>
+  <si>
+    <t>2024.04.02</t>
+  </si>
+  <si>
+    <t>2024.03.25</t>
   </si>
 </sst>
 </file>
@@ -95,7 +101,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\.mm\.dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\.mm\.dd"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -128,36 +134,22 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -492,75 +484,78 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.44140625" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" customWidth="1"/>
+    <col min="1" max="1" width="61.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:D100">
@@ -606,14 +601,14 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="59.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -624,7 +619,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -635,7 +630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -643,7 +638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -651,12 +646,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>5</v>
       </c>
